--- a/Aide/wwwroot/AdvisingMaterial/Majors/Software Engineer/StudyPlan/2020-2021.xlsx
+++ b/Aide/wwwroot/AdvisingMaterial/Majors/Software Engineer/StudyPlan/2020-2021.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ASU 2020 2021\School Advisory\Student Advisory Plan\Advising Material\Advising Material\SE_Plans\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ib_ra\Documents\GitHub\Aide\Aide\wwwroot\AdvisingMaterial\Majors\Software Engineer\StudyPlan\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F4E116-DC92-4967-ACCD-ED1A7C8941A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9600" tabRatio="791" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="791" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SE-Ar" sheetId="21" r:id="rId1"/>
@@ -27,7 +28,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'SE-Ar'!$B$1:$M$62</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'SE-En'!$B$1:$M$63</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,6 +36,8 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -42,12 +45,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Dr. Mahmood Al-Bashayreh</author>
   </authors>
   <commentList>
-    <comment ref="H5" authorId="0" shapeId="0">
+    <comment ref="H5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -71,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q5" authorId="0" shapeId="0">
+    <comment ref="Q5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -95,7 +98,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H15" authorId="0" shapeId="0">
+    <comment ref="H15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -119,7 +122,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q15" authorId="0" shapeId="0">
+    <comment ref="Q15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -143,7 +146,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H26" authorId="0" shapeId="0">
+    <comment ref="H26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
       <text>
         <r>
           <rPr>
@@ -167,7 +170,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q26" authorId="0" shapeId="0">
+    <comment ref="Q26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
       <text>
         <r>
           <rPr>
@@ -191,7 +194,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H39" authorId="0" shapeId="0">
+    <comment ref="H39" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
       <text>
         <r>
           <rPr>
@@ -215,7 +218,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q39" authorId="0" shapeId="0">
+    <comment ref="Q39" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
       <text>
         <r>
           <rPr>
@@ -2237,7 +2240,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -3215,7 +3218,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="344">
+  <cellXfs count="345">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -4236,12 +4239,15 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 2 2" xfId="2"/>
-    <cellStyle name="Normal 3" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="30">
     <dxf>
@@ -4689,7 +4695,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="TableStyleMedium1 2" pivot="0" count="7">
+    <tableStyle name="TableStyleMedium1 2" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="29"/>
       <tableStyleElement type="headerRow" dxfId="28"/>
       <tableStyleElement type="totalRow" dxfId="27"/>
@@ -5032,16 +5038,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>157313</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>431157</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>7934</xdr:rowOff>
+      <xdr:rowOff>31746</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>731837</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>367934</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1005681</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>10746</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5070,12 +5076,86 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2963210038" y="7934"/>
+          <a:off x="1193157" y="31746"/>
           <a:ext cx="574524" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>130969</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>531267</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>14378</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C652B54-7A7A-4B02-933A-22237DC0CC1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="309563" y="0"/>
+          <a:ext cx="400298" cy="395378"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -13351,51 +13431,51 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table32" displayName="Table32" ref="A19:A35" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21" headerRowCellStyle="Normal 2 2" dataCellStyle="Normal 2 2">
-  <autoFilter ref="A19:A35"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table32" displayName="Table32" ref="A19:A35" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21" headerRowCellStyle="Normal 2 2" dataCellStyle="Normal 2 2">
+  <autoFilter ref="A19:A35" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Academic Year" dataDxfId="20" dataCellStyle="Normal 2 2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Academic Year" dataDxfId="20" dataCellStyle="Normal 2 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table4" displayName="Table4" ref="A12:A15" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" headerRowCellStyle="Normal 2 2" dataCellStyle="Normal 2 2">
-  <autoFilter ref="A12:A15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table4" displayName="Table4" ref="A12:A15" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" headerRowCellStyle="Normal 2 2" dataCellStyle="Normal 2 2">
+  <autoFilter ref="A12:A15" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Semester" dataDxfId="17" dataCellStyle="Normal 2 2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Semester" dataDxfId="17" dataCellStyle="Normal 2 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table25" displayName="Table25" ref="A1:B9" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
-  <autoFilter ref="A1:B9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table25" displayName="Table25" ref="A1:B9" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+  <autoFilter ref="A1:B9" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Code" dataDxfId="14"/>
-    <tableColumn id="2" name="Description" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Code" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Description" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:K290" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" headerRowCellStyle="Normal" dataCellStyle="Normal">
-  <autoFilter ref="A1:K290"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table3" displayName="Table3" ref="A1:K290" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <autoFilter ref="A1:K290" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="Course#" dataDxfId="10" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="Arabic Name" dataDxfId="9" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="English Name" dataDxfId="8" dataCellStyle="Normal"/>
-    <tableColumn id="4" name="Thry" dataDxfId="7" dataCellStyle="Normal"/>
-    <tableColumn id="5" name="Pract" dataDxfId="6" dataCellStyle="Normal"/>
-    <tableColumn id="6" name="Total" dataDxfId="5" dataCellStyle="Normal"/>
-    <tableColumn id="7" name="Pre (CS)" dataDxfId="4" dataCellStyle="Normal"/>
-    <tableColumn id="8" name="Pre (SE)" dataDxfId="3" dataCellStyle="Normal"/>
-    <tableColumn id="9" name="Pre (CIS)" dataDxfId="2" dataCellStyle="Normal"/>
-    <tableColumn id="10" name="Pre (CNS)" dataDxfId="1" dataCellStyle="Normal"/>
-    <tableColumn id="11" name=" اسم المساق باللغة الانجليزية على نظام الـ أون لاين التي تختلف عن تسميتنا لمساقات الكليات الأخرى" dataDxfId="0" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Course#" dataDxfId="10" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Arabic Name" dataDxfId="9" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="English Name" dataDxfId="8" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Thry" dataDxfId="7" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Pract" dataDxfId="6" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Total" dataDxfId="5" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Pre (CS)" dataDxfId="4" dataCellStyle="Normal"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Pre (SE)" dataDxfId="3" dataCellStyle="Normal"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Pre (CIS)" dataDxfId="2" dataCellStyle="Normal"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="Pre (CNS)" dataDxfId="1" dataCellStyle="Normal"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name=" اسم المساق باللغة الانجليزية على نظام الـ أون لاين التي تختلف عن تسميتنا لمساقات الكليات الأخرى" dataDxfId="0" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13477,6 +13557,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -13512,6 +13609,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -13687,7 +13801,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet6">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -15904,7 +16018,7 @@
       <c r="F68" s="3"/>
     </row>
   </sheetData>
-  <sortState ref="H41:H55">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H41:H55">
     <sortCondition ref="H41"/>
   </sortState>
   <mergeCells count="71">
@@ -15989,7 +16103,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -18203,7 +18317,7 @@
       <c r="F69" s="27"/>
     </row>
   </sheetData>
-  <sortState ref="H41:H51">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H41:H51">
     <sortCondition ref="H41"/>
   </sortState>
   <mergeCells count="74">
@@ -18291,13 +18405,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:N48"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView showGridLines="0" rightToLeft="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:N1"/>
     </sheetView>
   </sheetViews>
@@ -19997,7 +20111,7 @@
     </row>
     <row r="48" spans="2:14" ht="12" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <sortState ref="I39:I41">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I39:I41">
     <sortCondition ref="I39"/>
   </sortState>
   <mergeCells count="59">
@@ -20070,14 +20184,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:R47"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="H10" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -20109,10 +20223,10 @@
       <c r="J1" s="343"/>
       <c r="K1" s="343"/>
       <c r="L1" s="343"/>
-      <c r="M1" s="343"/>
-      <c r="N1" s="343"/>
-      <c r="O1" s="343"/>
-      <c r="P1" s="343"/>
+      <c r="M1" s="344"/>
+      <c r="N1" s="344"/>
+      <c r="O1" s="344"/>
+      <c r="P1" s="344"/>
       <c r="Q1" s="133"/>
       <c r="R1" s="133"/>
     </row>
@@ -22045,7 +22159,6 @@
     </row>
   </sheetData>
   <mergeCells count="76">
-    <mergeCell ref="B1:P1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="K2:P2"/>
     <mergeCell ref="B3:B4"/>
@@ -22055,6 +22168,7 @@
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="M3:O3"/>
+    <mergeCell ref="B1:L1"/>
     <mergeCell ref="D13:F13"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="K13:K14"/>
@@ -22123,10 +22237,10 @@
     <mergeCell ref="Q21:R21"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="custom" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Registration Semester" prompt="Please enter the academic year of the registration and semester. For example, the value 20161 represents the first semester of the academic year 2016." sqref="H6 H16 H27 H40 Q40 Q27 Q16 Q6">
+    <dataValidation type="custom" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Registration Semester" prompt="Please enter the academic year of the registration and semester. For example, the value 20161 represents the first semester of the academic year 2016." sqref="H6 H16 H27 H40 Q40 Q27 Q16 Q6" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>20160</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Example" prompt="20161_x000a_20162" sqref="H7:H10 H5 H15 H17:H21 H26 H28:H32 H39 H41:H45 Q39 Q41:Q45 Q26 Q28:Q32 Q15 Q17:Q21 Q7:Q10 Q5">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Example" prompt="20161_x000a_20162" sqref="H7:H10 H5 H15 H17:H21 H26 H28:H32 H39 H41:H45 Q39 Q41:Q45 Q26 Q28:Q32 Q15 Q17:Q21 Q7:Q10 Q5" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>20140</formula1>
     </dataValidation>
   </dataValidations>
@@ -22139,25 +22253,25 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Status:" prompt="☼ Registered according to advising plan._x000a_► Registered in a later semester_x000a_◄ Registered in a semester before._x000a_↔ Compensated course (معوضة)._x000a_≈ Equivalent course (معادلة)._x000a_※ Alternative course (بديلة)._x000a_‼ Registered violating advising plan.">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Status:" prompt="☼ Registered according to advising plan._x000a_► Registered in a later semester_x000a_◄ Registered in a semester before._x000a_↔ Compensated course (معوضة)._x000a_≈ Equivalent course (معادلة)._x000a_※ Alternative course (بديلة)._x000a_‼ Registered violating advising plan." xr:uid="{00000000-0002-0000-0300-000002000000}">
           <x14:formula1>
             <xm:f>'C:\Users\o_alsheiksalem.ASU.000\Desktop\My advising list of students\Academic Advising My Students till 20201\201910849 احمد نبيل عزت شكوكاني\[SE-Study Plan 20191.xlsx]Academic advising'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>I21 I32 I45 R45 R32 R21 R10 I10</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000003000000}">
           <x14:formula1>
             <xm:f>'Academic advising'!$A$20:$A$35</xm:f>
           </x14:formula1>
           <xm:sqref>H2 H2 H12 H23 H36 Q36 Q23 Q12 Q2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000004000000}">
           <x14:formula1>
             <xm:f>'Academic advising'!$A$13:$A$15</xm:f>
           </x14:formula1>
           <xm:sqref>R2 R12 R23 R36 I2 I12 I23 I36</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Status:" prompt="☼ Registered according to advising plan._x000a_► Registered in a later semester_x000a_◄ Registered in a semester before._x000a_↔ Compensated course (معوضة)._x000a_≈ Equivalent course (معادلة)._x000a_※ Alternative course (بديلة)._x000a_‼ Registered violating advising plan.">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Status:" prompt="☼ Registered according to advising plan._x000a_► Registered in a later semester_x000a_◄ Registered in a semester before._x000a_↔ Compensated course (معوضة)._x000a_≈ Equivalent course (معادلة)._x000a_※ Alternative course (بديلة)._x000a_‼ Registered violating advising plan." xr:uid="{00000000-0002-0000-0300-000005000000}">
           <x14:formula1>
             <xm:f>'Academic advising'!$A$2:$A$9</xm:f>
           </x14:formula1>
@@ -22170,7 +22284,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22482,7 +22596,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:P290"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
